--- a/LEDS/LED Communication.xlsx
+++ b/LEDS/LED Communication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="10860" windowWidth="33360" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="-180" yWindow="15960" windowWidth="35820" windowHeight="17060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Alliance Color</t>
   </si>
@@ -72,9 +72,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Gear Catch</t>
-  </si>
-  <si>
     <t>Gear Straight</t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t>Turret</t>
   </si>
   <si>
-    <t>Catching</t>
-  </si>
-  <si>
-    <t>Ready to Place</t>
-  </si>
-  <si>
     <t>Placing</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>Green Flash</t>
-  </si>
-  <si>
     <t>Aliance Color</t>
   </si>
   <si>
@@ -217,6 +202,27 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Shooting</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Ready to Catch</t>
+  </si>
+  <si>
+    <t>Caught</t>
   </si>
 </sst>
 </file>
@@ -329,18 +335,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,9 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,6 +357,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S8"/>
+  <dimension ref="A2:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,251 +731,261 @@
     <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>52</v>
+      <c r="N4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="C6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="1:21">
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="1:21">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:21">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -977,7 +996,8 @@
       <c r="L8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:E2"/>

--- a/LEDS/LED Communication.xlsx
+++ b/LEDS/LED Communication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="15960" windowWidth="35820" windowHeight="17060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Alliance Color</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Aliance Color</t>
   </si>
   <si>
-    <t>Aliance Color Flashing</t>
-  </si>
-  <si>
     <t>1Byte</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>Caught</t>
+  </si>
+  <si>
+    <t>CAT Yellow</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SyncChar</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,17 +365,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -708,303 +717,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U8"/>
+  <dimension ref="A2:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="11"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="11"/>
+      <c r="V3" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="I4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
+    <row r="6" spans="1:22">
       <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:21">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:22">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="1:22">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
